--- a/REGULAR/GSO/ORTIZ, TRINIDAD.xlsx
+++ b/REGULAR/GSO/ORTIZ, TRINIDAD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="505">
   <si>
     <t>PERIOD</t>
   </si>
@@ -344,9 +344,6 @@
     <t>SL(7-0-0)</t>
   </si>
   <si>
-    <t>6/9-16/2022</t>
-  </si>
-  <si>
     <t>7/15,8,19/2022</t>
   </si>
   <si>
@@ -1503,6 +1500,54 @@
   </si>
   <si>
     <t>UT(0-1-15)</t>
+  </si>
+  <si>
+    <t>UT(0-1-26)</t>
+  </si>
+  <si>
+    <t>UT(0-2-48)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>8/8,26,30,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-30)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/7,18,21/2022</t>
+  </si>
+  <si>
+    <t>UT(0-2-26)</t>
+  </si>
+  <si>
+    <t>6/9-17/2022</t>
+  </si>
+  <si>
+    <t>6/3,30/2022</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-27)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
+  </si>
+  <si>
+    <t>5/20, 23-27/2022</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2200,8 +2245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K782" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K782"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K793" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K793"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2530,12 +2575,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K782"/>
+  <dimension ref="A2:K793"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2955" topLeftCell="A709" activePane="bottomLeft"/>
-      <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="M725" sqref="M725"/>
+      <pane ySplit="2730" topLeftCell="A688" activePane="bottomLeft"/>
+      <selection activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="B697" sqref="B697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
@@ -2579,7 +2624,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
@@ -2606,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
@@ -2698,7 +2743,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-23.348999999999933</v>
+        <v>-40.685999999999922</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2715,7 +2760,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="13"/>
@@ -2733,7 +2778,7 @@
         <v>36434</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="13">
         <v>1.25</v>
@@ -2751,7 +2796,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2760,7 +2805,7 @@
         <v>36465</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -2778,7 +2823,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2804,7 +2849,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -3056,7 +3101,7 @@
         <v>36861</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -3077,7 +3122,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3098,7 +3143,7 @@
         <v>36892</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -3116,7 +3161,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3146,7 +3191,7 @@
         <v>36951</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -3164,7 +3209,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3257,7 +3302,7 @@
         <v>37104</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -3275,7 +3320,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3284,7 +3329,7 @@
         <v>37135</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -3302,7 +3347,7 @@
       <c r="I36" s="13"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3370,7 +3415,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3433,7 +3478,7 @@
         <v>37316</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -3451,7 +3496,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3481,7 +3526,7 @@
         <v>37377</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3505,7 +3550,7 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3569,7 +3614,7 @@
         <v>37469</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -3587,7 +3632,7 @@
       <c r="I49" s="13"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3596,7 +3641,7 @@
         <v>37500</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3614,7 +3659,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3665,7 +3710,7 @@
         <v>37591</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
@@ -3686,7 +3731,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="49"/>
       <c r="C54" s="13"/>
@@ -3749,7 +3794,7 @@
         <v>37681</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -3767,7 +3812,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3776,7 +3821,7 @@
         <v>37712</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -3794,7 +3839,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3803,7 +3848,7 @@
         <v>37742</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -3821,7 +3866,7 @@
       <c r="I59" s="13"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3830,7 +3875,7 @@
         <v>37773</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -3899,7 +3944,7 @@
         <v>37865</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
@@ -3917,7 +3962,7 @@
       <c r="I63" s="13"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3968,7 +4013,7 @@
         <v>37956</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -3989,7 +4034,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4031,7 +4076,7 @@
         <v>38018</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -4100,7 +4145,7 @@
         <v>38108</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -4118,7 +4163,7 @@
       <c r="I72" s="13"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4148,7 +4193,7 @@
         <v>38169</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -4166,13 +4211,13 @@
       <c r="I74" s="13"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4185,7 +4230,7 @@
       <c r="I75" s="13"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4194,7 +4239,7 @@
         <v>38200</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -4212,7 +4257,7 @@
       <c r="I76" s="13"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4221,7 +4266,7 @@
         <v>38231</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -4239,7 +4284,7 @@
       <c r="I77" s="13"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4290,7 +4335,7 @@
         <v>38322</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -4308,13 +4353,13 @@
       <c r="I80" s="13"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4336,7 +4381,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
@@ -4355,7 +4400,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="13"/>
@@ -4502,7 +4547,7 @@
         <v>38534</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -4520,7 +4565,7 @@
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4550,7 +4595,7 @@
         <v>38596</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="13">
         <v>1.25</v>
@@ -4574,7 +4619,7 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4596,7 +4641,7 @@
         <v>38626</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -4614,7 +4659,7 @@
       <c r="I94" s="13"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4623,7 +4668,7 @@
         <v>38657</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -4641,7 +4686,7 @@
       <c r="I95" s="13"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4650,7 +4695,7 @@
         <v>38687</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -4671,7 +4716,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" s="49"/>
       <c r="C97" s="13"/>
@@ -4692,7 +4737,7 @@
         <v>38718</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -4761,7 +4806,7 @@
         <v>38808</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
@@ -4779,13 +4824,13 @@
       <c r="I101" s="13"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4798,13 +4843,13 @@
       <c r="I102" s="13"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4817,13 +4862,13 @@
       <c r="I103" s="13"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4836,7 +4881,7 @@
         <v>8</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4845,7 +4890,7 @@
         <v>38838</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -4863,13 +4908,13 @@
       <c r="I105" s="13"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4882,13 +4927,13 @@
       <c r="I106" s="13"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4901,13 +4946,13 @@
       <c r="I107" s="13"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39">
@@ -4920,13 +4965,13 @@
       <c r="I108" s="13"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="39">
@@ -4939,13 +4984,13 @@
       <c r="I109" s="13"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4958,7 +5003,7 @@
       <c r="I110" s="13"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5009,7 +5054,7 @@
         <v>38930</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -5027,13 +5072,13 @@
       <c r="I113" s="13"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39">
@@ -5046,7 +5091,7 @@
       <c r="I114" s="13"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5076,7 +5121,7 @@
         <v>38991</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -5141,7 +5186,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B119" s="49"/>
       <c r="C119" s="13"/>
@@ -5204,7 +5249,7 @@
         <v>39142</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C122" s="13">
         <v>1.25</v>
@@ -5222,13 +5267,13 @@
       <c r="I122" s="13"/>
       <c r="J122" s="11"/>
       <c r="K122" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39">
@@ -5241,13 +5286,13 @@
       <c r="I123" s="13"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5260,7 +5305,7 @@
       <c r="I124" s="13"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5269,7 +5314,7 @@
         <v>39173</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -5293,7 +5338,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5306,13 +5351,13 @@
       <c r="I126" s="13"/>
       <c r="J126" s="11"/>
       <c r="K126" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5325,7 +5370,7 @@
       <c r="I127" s="13"/>
       <c r="J127" s="11"/>
       <c r="K127" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5334,7 +5379,7 @@
         <v>39203</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -5358,7 +5403,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5371,13 +5416,13 @@
       <c r="I129" s="13"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5390,13 +5435,13 @@
       <c r="I130" s="13"/>
       <c r="J130" s="11"/>
       <c r="K130" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5418,7 +5463,7 @@
         <v>39234</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
@@ -5438,13 +5483,13 @@
       <c r="I132" s="13"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="39">
@@ -5457,13 +5502,13 @@
       <c r="I133" s="13"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="39">
@@ -5476,7 +5521,7 @@
       <c r="I134" s="13"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5485,7 +5530,7 @@
         <v>39264</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -5505,13 +5550,13 @@
       <c r="I135" s="13"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5524,13 +5569,13 @@
       <c r="I136" s="13"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5543,7 +5588,7 @@
       <c r="I137" s="13"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5573,7 +5618,7 @@
         <v>39326</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
@@ -5591,13 +5636,13 @@
       <c r="I139" s="13"/>
       <c r="J139" s="11"/>
       <c r="K139" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="39">
@@ -5614,7 +5659,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -5627,13 +5672,13 @@
         <v>3</v>
       </c>
       <c r="K141" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="39">
@@ -5646,7 +5691,7 @@
       <c r="I142" s="13"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5697,7 +5742,7 @@
         <v>39417</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -5713,13 +5758,13 @@
       <c r="I145" s="13"/>
       <c r="J145" s="11"/>
       <c r="K145" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="39">
@@ -5735,12 +5780,12 @@
       <c r="I146" s="13"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147" s="49"/>
       <c r="C147" s="13"/>
@@ -5761,7 +5806,7 @@
         <v>39448</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C148" s="13">
         <v>1.25</v>
@@ -5783,7 +5828,7 @@
         <v>0.25</v>
       </c>
       <c r="K148" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5792,7 +5837,7 @@
         <v>39479</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -5810,13 +5855,13 @@
       <c r="I149" s="13"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39">
@@ -5829,13 +5874,13 @@
       <c r="I150" s="13"/>
       <c r="J150" s="11"/>
       <c r="K150" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="39">
@@ -5850,7 +5895,7 @@
       <c r="I151" s="13"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -5943,7 +5988,7 @@
         <v>39630</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -5963,13 +6008,13 @@
       <c r="I156" s="13"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="39">
@@ -5991,7 +6036,7 @@
         <v>39661</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -6009,13 +6054,13 @@
       <c r="I158" s="13"/>
       <c r="J158" s="11"/>
       <c r="K158" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -6028,13 +6073,13 @@
         <v>2</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="39">
@@ -6047,7 +6092,7 @@
       <c r="I160" s="13"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6056,7 +6101,7 @@
         <v>39692</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -6074,7 +6119,7 @@
       <c r="I161" s="13"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6083,7 +6128,7 @@
         <v>39722</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -6101,13 +6146,13 @@
         <v>20</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
@@ -6120,7 +6165,7 @@
         <v>2</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6129,7 +6174,7 @@
         <v>39753</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C164" s="13">
         <v>1.25</v>
@@ -6147,13 +6192,13 @@
         <v>3</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="39">
@@ -6173,7 +6218,7 @@
         <v>39783</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -6197,7 +6242,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="39"/>
@@ -6211,13 +6256,13 @@
       <c r="I167" s="13"/>
       <c r="J167" s="11"/>
       <c r="K167" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="39">
@@ -6241,7 +6286,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="39">
@@ -6263,7 +6308,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="39"/>
@@ -6285,7 +6330,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="39"/>
@@ -6307,7 +6352,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="39">
@@ -6326,7 +6371,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B173" s="49"/>
       <c r="C173" s="13"/>
@@ -6347,7 +6392,7 @@
         <v>39814</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C174" s="13">
         <v>1.25</v>
@@ -6363,13 +6408,13 @@
       <c r="I174" s="13"/>
       <c r="J174" s="11"/>
       <c r="K174" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="39"/>
@@ -6380,13 +6425,13 @@
       <c r="I175" s="13"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="39"/>
@@ -6397,13 +6442,13 @@
       <c r="I176" s="13"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="39"/>
@@ -6422,7 +6467,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="39"/>
@@ -6441,7 +6486,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="39"/>
@@ -6454,13 +6499,13 @@
       <c r="I179" s="13"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="39">
@@ -6480,7 +6525,7 @@
         <v>39845</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C181" s="13">
         <v>1.25</v>
@@ -6504,7 +6549,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="39">
@@ -6525,7 +6570,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39"/>
@@ -6538,13 +6583,13 @@
         <v>6</v>
       </c>
       <c r="K183" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="39"/>
@@ -6563,7 +6608,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39">
@@ -6583,7 +6628,7 @@
         <v>39873</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -6607,7 +6652,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="39"/>
@@ -6626,7 +6671,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="39"/>
@@ -6645,7 +6690,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="39"/>
@@ -6658,13 +6703,13 @@
       <c r="I189" s="13"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="39">
@@ -6684,7 +6729,7 @@
         <v>39904</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
@@ -6708,7 +6753,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="39">
@@ -6731,7 +6776,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="39"/>
@@ -6750,7 +6795,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="39">
@@ -6770,7 +6815,7 @@
         <v>39934</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -6794,7 +6839,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="39"/>
@@ -6813,7 +6858,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39">
@@ -6833,7 +6878,7 @@
         <v>39965</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C198" s="13">
         <v>1.25</v>
@@ -6857,7 +6902,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="39"/>
@@ -6870,13 +6915,13 @@
         <v>2</v>
       </c>
       <c r="K199" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
@@ -6889,13 +6934,13 @@
         <v>2</v>
       </c>
       <c r="K200" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39">
@@ -6915,7 +6960,7 @@
         <v>39995</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -6939,7 +6984,7 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39"/>
@@ -6958,7 +7003,7 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39"/>
@@ -6977,7 +7022,7 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="39">
@@ -6997,7 +7042,7 @@
         <v>40026</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C206" s="13">
         <v>1.25</v>
@@ -7021,7 +7066,7 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="39"/>
@@ -7034,13 +7079,13 @@
       <c r="I207" s="13"/>
       <c r="J207" s="11"/>
       <c r="K207" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="39">
@@ -7060,7 +7105,7 @@
         <v>40057</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -7084,7 +7129,7 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="39"/>
@@ -7103,7 +7148,7 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39">
@@ -7123,7 +7168,7 @@
         <v>40087</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C212" s="13">
         <v>1.25</v>
@@ -7147,7 +7192,7 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="39"/>
@@ -7166,7 +7211,7 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39"/>
@@ -7185,7 +7230,7 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39"/>
@@ -7198,13 +7243,13 @@
         <v>2</v>
       </c>
       <c r="K215" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39">
@@ -7224,7 +7269,7 @@
         <v>40118</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -7248,7 +7293,7 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="39"/>
@@ -7266,7 +7311,7 @@
         <v>40148</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -7290,7 +7335,7 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="39"/>
@@ -7309,7 +7354,7 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -7322,13 +7367,13 @@
         <v>3</v>
       </c>
       <c r="K221" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39">
@@ -7344,7 +7389,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B223" s="49"/>
       <c r="C223" s="13"/>
@@ -7365,7 +7410,7 @@
         <v>40179</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -7381,13 +7426,13 @@
       <c r="I224" s="13"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
@@ -7398,13 +7443,13 @@
       <c r="I225" s="13"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39"/>
@@ -7415,13 +7460,13 @@
       <c r="I226" s="13"/>
       <c r="J226" s="11"/>
       <c r="K226" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C227" s="13"/>
       <c r="D227" s="39">
@@ -7441,7 +7486,7 @@
         <v>40210</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -7465,7 +7510,7 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39"/>
@@ -7478,13 +7523,13 @@
       <c r="I229" s="13"/>
       <c r="J229" s="11"/>
       <c r="K229" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39"/>
@@ -7503,7 +7548,7 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C231" s="13"/>
       <c r="D231" s="39"/>
@@ -7516,13 +7561,13 @@
         <v>3</v>
       </c>
       <c r="K231" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39">
@@ -7542,7 +7587,7 @@
         <v>40238</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C233" s="13">
         <v>1.25</v>
@@ -7566,7 +7611,7 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39"/>
@@ -7585,7 +7630,7 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="39"/>
@@ -7604,7 +7649,7 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="39"/>
@@ -7623,7 +7668,7 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39"/>
@@ -7642,7 +7687,7 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39">
@@ -7662,7 +7707,7 @@
         <v>40269</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
@@ -7686,7 +7731,7 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C240" s="13"/>
       <c r="D240" s="39"/>
@@ -7699,13 +7744,13 @@
         <v>2</v>
       </c>
       <c r="K240" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="39">
@@ -7725,7 +7770,7 @@
         <v>40299</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C242" s="13">
         <v>1.25</v>
@@ -7749,7 +7794,7 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C243" s="13"/>
       <c r="D243" s="39"/>
@@ -7768,7 +7813,7 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
@@ -7787,7 +7832,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39">
@@ -7807,7 +7852,7 @@
         <v>40330</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C246" s="13">
         <v>1.25</v>
@@ -7831,7 +7876,7 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39">
@@ -7848,13 +7893,13 @@
       <c r="I247" s="13"/>
       <c r="J247" s="11"/>
       <c r="K247" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39"/>
@@ -7872,7 +7917,7 @@
         <v>40360</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -7894,7 +7939,7 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39"/>
@@ -7913,7 +7958,7 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="39"/>
@@ -7932,7 +7977,7 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39">
@@ -7952,7 +7997,7 @@
         <v>40391</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C253" s="13">
         <v>1.25</v>
@@ -7972,13 +8017,13 @@
         <v>1</v>
       </c>
       <c r="K253" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="39">
@@ -7998,7 +8043,7 @@
         <v>40422</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C255" s="13">
         <v>1.25</v>
@@ -8018,13 +8063,13 @@
       <c r="I255" s="13"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C256" s="13"/>
       <c r="D256" s="39"/>
@@ -8043,7 +8088,7 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39"/>
@@ -8062,7 +8107,7 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="39"/>
@@ -8075,13 +8120,13 @@
         <v>3</v>
       </c>
       <c r="K258" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="39">
@@ -8101,7 +8146,7 @@
         <v>40452</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -8123,13 +8168,13 @@
         <v>0.25</v>
       </c>
       <c r="K260" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="39"/>
@@ -8148,7 +8193,7 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
@@ -8161,13 +8206,13 @@
       <c r="I262" s="13"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
@@ -8180,13 +8225,13 @@
         <v>3</v>
       </c>
       <c r="K263" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="39"/>
@@ -8199,13 +8244,13 @@
         <v>3</v>
       </c>
       <c r="K264" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39">
@@ -8225,7 +8270,7 @@
         <v>40483</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C266" s="13">
         <v>1.25</v>
@@ -8249,7 +8294,7 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="39">
@@ -8268,7 +8313,7 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
@@ -8287,7 +8332,7 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39"/>
@@ -8306,7 +8351,7 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="39"/>
@@ -8319,13 +8364,13 @@
         <v>3</v>
       </c>
       <c r="K270" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="39"/>
@@ -8338,13 +8383,13 @@
       <c r="I271" s="13"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C272" s="13"/>
       <c r="D272" s="39">
@@ -8364,7 +8409,7 @@
         <v>40513</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -8388,7 +8433,7 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="39"/>
@@ -8407,7 +8452,7 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -8428,7 +8473,7 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="39">
@@ -8444,7 +8489,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B277" s="49"/>
       <c r="C277" s="13"/>
@@ -8465,7 +8510,7 @@
         <v>40544</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C278" s="13">
         <v>1.25</v>
@@ -8481,13 +8526,13 @@
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39"/>
@@ -8506,7 +8551,7 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="39">
@@ -8526,7 +8571,7 @@
         <v>40575</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C281" s="13">
         <v>1.25</v>
@@ -8550,7 +8595,7 @@
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39">
@@ -8563,13 +8608,13 @@
       <c r="I282" s="13"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39"/>
@@ -8582,13 +8627,13 @@
         <v>2</v>
       </c>
       <c r="K283" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="39"/>
@@ -8610,7 +8655,7 @@
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="39"/>
@@ -8623,13 +8668,13 @@
         <v>2</v>
       </c>
       <c r="K285" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="39">
@@ -8649,7 +8694,7 @@
         <v>40603</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C287" s="13">
         <v>1.25</v>
@@ -8673,7 +8718,7 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="39"/>
@@ -8692,7 +8737,7 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="39"/>
@@ -8705,13 +8750,13 @@
         <v>1</v>
       </c>
       <c r="K289" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39">
@@ -8731,7 +8776,7 @@
         <v>40634</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C291" s="13">
         <v>1.25</v>
@@ -8755,7 +8800,7 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="39">
@@ -8775,7 +8820,7 @@
         <v>40664</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -8799,7 +8844,7 @@
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39">
@@ -8820,7 +8865,7 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39"/>
@@ -8839,7 +8884,7 @@
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="39">
@@ -8859,7 +8904,7 @@
         <v>40695</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C297" s="13">
         <v>1.25</v>
@@ -8883,7 +8928,7 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39">
@@ -8903,7 +8948,7 @@
         <v>40725</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -8923,13 +8968,13 @@
         <v>2</v>
       </c>
       <c r="K299" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
@@ -8948,7 +8993,7 @@
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39">
@@ -8968,7 +9013,7 @@
         <v>40756</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -8992,7 +9037,7 @@
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C303" s="13"/>
       <c r="D303" s="39"/>
@@ -9009,7 +9054,7 @@
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -9026,7 +9071,7 @@
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39"/>
@@ -9043,7 +9088,7 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39">
@@ -9063,7 +9108,7 @@
         <v>40787</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C307" s="13">
         <v>1.25</v>
@@ -9087,7 +9132,7 @@
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="39"/>
@@ -9102,13 +9147,13 @@
         <v>1.5</v>
       </c>
       <c r="K308" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -9121,13 +9166,13 @@
         <v>4</v>
       </c>
       <c r="K309" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39">
@@ -9147,7 +9192,7 @@
         <v>40817</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C311" s="13">
         <v>1.25</v>
@@ -9167,13 +9212,13 @@
       <c r="I311" s="13"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C312" s="13"/>
       <c r="D312" s="39">
@@ -9193,7 +9238,7 @@
         <v>40848</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C313" s="13">
         <v>1.25</v>
@@ -9217,7 +9262,7 @@
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
@@ -9234,7 +9279,7 @@
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
@@ -9253,7 +9298,7 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C316" s="13"/>
       <c r="D316" s="39">
@@ -9273,7 +9318,7 @@
         <v>40878</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -9297,7 +9342,7 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39">
@@ -9316,7 +9361,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -9337,7 +9382,7 @@
         <v>40909</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -9353,13 +9398,13 @@
       <c r="I320" s="13"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
@@ -9370,13 +9415,13 @@
       <c r="I321" s="13"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
@@ -9389,13 +9434,13 @@
       <c r="I322" s="13"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39">
@@ -9415,7 +9460,7 @@
         <v>40940</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C324" s="13">
         <v>1.25</v>
@@ -9433,13 +9478,13 @@
       <c r="I324" s="13"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
@@ -9452,13 +9497,13 @@
         <v>4</v>
       </c>
       <c r="K325" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -9477,7 +9522,7 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -9490,13 +9535,13 @@
         <v>7</v>
       </c>
       <c r="K327" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -9509,13 +9554,13 @@
         <v>3</v>
       </c>
       <c r="K328" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -9528,13 +9573,13 @@
       <c r="I329" s="13"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39"/>
@@ -9553,7 +9598,7 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C331" s="13"/>
       <c r="D331" s="39">
@@ -9657,7 +9702,7 @@
         <v>41091</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C336" s="13">
         <v>1.25</v>
@@ -9681,7 +9726,7 @@
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
@@ -9694,13 +9739,13 @@
         <v>3</v>
       </c>
       <c r="K337" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C338" s="13"/>
       <c r="D338" s="39"/>
@@ -9713,13 +9758,13 @@
         <v>3</v>
       </c>
       <c r="K338" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="13"/>
       <c r="D339" s="39">
@@ -9739,7 +9784,7 @@
         <v>41122</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="13">
         <v>1.25</v>
@@ -9757,13 +9802,13 @@
         <v>11</v>
       </c>
       <c r="K340" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
@@ -9776,13 +9821,13 @@
         <v>4</v>
       </c>
       <c r="K341" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C342" s="13"/>
       <c r="D342" s="39">
@@ -9802,7 +9847,7 @@
         <v>41153</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C343" s="13">
         <v>1.25</v>
@@ -9826,7 +9871,7 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="39">
@@ -9843,13 +9888,13 @@
         <v>0.25</v>
       </c>
       <c r="K344" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
@@ -9862,13 +9907,13 @@
         <v>2</v>
       </c>
       <c r="K345" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="39">
@@ -9888,7 +9933,7 @@
         <v>41183</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -9912,7 +9957,7 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -9925,13 +9970,13 @@
         <v>2</v>
       </c>
       <c r="K348" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C349" s="13"/>
       <c r="D349" s="39"/>
@@ -9944,13 +9989,13 @@
         <v>3</v>
       </c>
       <c r="K349" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="39"/>
@@ -9963,13 +10008,13 @@
         <v>3</v>
       </c>
       <c r="K350" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C351" s="13"/>
       <c r="D351" s="39">
@@ -9989,7 +10034,7 @@
         <v>41214</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
@@ -10013,7 +10058,7 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="39">
@@ -10030,13 +10075,13 @@
         <v>0.25</v>
       </c>
       <c r="K353" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C354" s="13"/>
       <c r="D354" s="39">
@@ -10056,7 +10101,7 @@
         <v>41244</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C355" s="13">
         <v>1.25</v>
@@ -10074,13 +10119,13 @@
       <c r="I355" s="13"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
@@ -10093,13 +10138,13 @@
         <v>2</v>
       </c>
       <c r="K356" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -10112,13 +10157,13 @@
         <v>4</v>
       </c>
       <c r="K357" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -10131,13 +10176,13 @@
         <v>8</v>
       </c>
       <c r="K358" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -10156,7 +10201,7 @@
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C360" s="13"/>
       <c r="D360" s="39">
@@ -10172,7 +10217,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10193,7 +10238,7 @@
         <v>41275</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C362" s="13">
         <v>1.25</v>
@@ -10209,13 +10254,13 @@
       <c r="I362" s="13"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -10226,13 +10271,13 @@
       <c r="I363" s="13"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -10243,13 +10288,13 @@
       <c r="I364" s="13"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39">
@@ -10269,7 +10314,7 @@
         <v>41306</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C366" s="13">
         <v>1.25</v>
@@ -10293,7 +10338,7 @@
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C367" s="13"/>
       <c r="D367" s="39">
@@ -10308,13 +10353,13 @@
       <c r="I367" s="13"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C368" s="13"/>
       <c r="D368" s="39"/>
@@ -10333,7 +10378,7 @@
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
@@ -10355,7 +10400,7 @@
         <v>41334</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -10373,13 +10418,13 @@
       <c r="I370" s="13"/>
       <c r="J370" s="11"/>
       <c r="K370" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
@@ -10401,7 +10446,7 @@
         <v>41365</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C372" s="13">
         <v>1.25</v>
@@ -10425,7 +10470,7 @@
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C373" s="13"/>
       <c r="D373" s="39"/>
@@ -10438,13 +10483,13 @@
       <c r="I373" s="13"/>
       <c r="J373" s="11"/>
       <c r="K373" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
@@ -10457,13 +10502,13 @@
         <v>2</v>
       </c>
       <c r="K374" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="39"/>
@@ -10476,13 +10521,13 @@
       <c r="I375" s="13"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39">
@@ -10502,7 +10547,7 @@
         <v>41395</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -10526,7 +10571,7 @@
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
@@ -10539,13 +10584,13 @@
         <v>3</v>
       </c>
       <c r="K378" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -10564,7 +10609,7 @@
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
@@ -10583,7 +10628,7 @@
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C381" s="13"/>
       <c r="D381" s="39"/>
@@ -10602,7 +10647,7 @@
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C382" s="13"/>
       <c r="D382" s="39">
@@ -10622,7 +10667,7 @@
         <v>41426</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -10640,13 +10685,13 @@
       <c r="I383" s="13"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
@@ -10659,13 +10704,13 @@
         <v>3</v>
       </c>
       <c r="K384" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C385" s="13"/>
       <c r="D385" s="39">
@@ -10685,7 +10730,7 @@
         <v>41456</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C386" s="13">
         <v>1.25</v>
@@ -10709,7 +10754,7 @@
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C387" s="13"/>
       <c r="D387" s="39"/>
@@ -10728,7 +10773,7 @@
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C388" s="13"/>
       <c r="D388" s="39">
@@ -10747,7 +10792,7 @@
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39">
@@ -10767,7 +10812,7 @@
         <v>41487</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -10787,13 +10832,13 @@
       <c r="I390" s="13"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39">
@@ -10813,7 +10858,7 @@
         <v>41518</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C392" s="13">
         <v>1.25</v>
@@ -10835,13 +10880,13 @@
         <v>0.5</v>
       </c>
       <c r="K392" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
@@ -10860,7 +10905,7 @@
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39">
@@ -10880,7 +10925,7 @@
         <v>41548</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
@@ -10904,7 +10949,7 @@
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C396" s="13"/>
       <c r="D396" s="39"/>
@@ -10917,13 +10962,13 @@
         <v>2</v>
       </c>
       <c r="K396" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
@@ -10942,7 +10987,7 @@
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
@@ -10955,13 +11000,13 @@
         <v>2</v>
       </c>
       <c r="K398" s="50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C399" s="13"/>
       <c r="D399" s="39">
@@ -10981,7 +11026,7 @@
         <v>41579</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -11005,7 +11050,7 @@
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
@@ -11024,7 +11069,7 @@
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
@@ -11043,7 +11088,7 @@
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C403" s="13"/>
       <c r="D403" s="39"/>
@@ -11056,13 +11101,13 @@
         <v>4</v>
       </c>
       <c r="K403" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39">
@@ -11082,7 +11127,7 @@
         <v>41609</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -11106,7 +11151,7 @@
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
@@ -11125,7 +11170,7 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39">
@@ -11141,7 +11186,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B408" s="49"/>
       <c r="C408" s="13"/>
@@ -11162,7 +11207,7 @@
         <v>41640</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C409" s="13">
         <v>1.25</v>
@@ -11178,13 +11223,13 @@
       <c r="I409" s="13"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39">
@@ -11197,13 +11242,13 @@
       <c r="I410" s="13"/>
       <c r="J410" s="11"/>
       <c r="K410" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C411" s="13"/>
       <c r="D411" s="39">
@@ -11216,13 +11261,13 @@
       <c r="I411" s="13"/>
       <c r="J411" s="11"/>
       <c r="K411" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C412" s="13"/>
       <c r="D412" s="39"/>
@@ -11235,13 +11280,13 @@
         <v>2</v>
       </c>
       <c r="K412" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C413" s="13"/>
       <c r="D413" s="39"/>
@@ -11260,7 +11305,7 @@
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C414" s="13"/>
       <c r="D414" s="39"/>
@@ -11273,13 +11318,13 @@
       <c r="I414" s="13"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -11292,13 +11337,13 @@
         <v>2</v>
       </c>
       <c r="K415" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
@@ -11317,7 +11362,7 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
@@ -11330,13 +11375,13 @@
         <v>2</v>
       </c>
       <c r="K417" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23"/>
       <c r="B418" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C418" s="13"/>
       <c r="D418" s="39"/>
@@ -11355,7 +11400,7 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
@@ -11374,7 +11419,7 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
@@ -11387,13 +11432,13 @@
         <v>2</v>
       </c>
       <c r="K420" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
@@ -11412,7 +11457,7 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -11425,13 +11470,13 @@
       <c r="I422" s="13"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
@@ -11450,7 +11495,7 @@
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -11463,13 +11508,13 @@
         <v>2</v>
       </c>
       <c r="K424" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -11488,7 +11533,7 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -11501,13 +11546,13 @@
         <v>3</v>
       </c>
       <c r="K426" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C427" s="13"/>
       <c r="D427" s="39"/>
@@ -11526,7 +11571,7 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -11539,13 +11584,13 @@
         <v>2</v>
       </c>
       <c r="K428" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C429" s="13"/>
       <c r="D429" s="39"/>
@@ -11558,13 +11603,13 @@
         <v>6</v>
       </c>
       <c r="K429" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C430" s="13"/>
       <c r="D430" s="39"/>
@@ -11583,7 +11628,7 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C431" s="13"/>
       <c r="D431" s="39">
@@ -11603,7 +11648,7 @@
         <v>41671</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C432" s="13">
         <v>1.25</v>
@@ -11627,7 +11672,7 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C433" s="13"/>
       <c r="D433" s="39">
@@ -11647,7 +11692,7 @@
         <v>41699</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
@@ -11671,7 +11716,7 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C435" s="13"/>
       <c r="D435" s="39">
@@ -11691,7 +11736,7 @@
         <v>41730</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C436" s="13">
         <v>1.25</v>
@@ -11715,7 +11760,7 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C437" s="13"/>
       <c r="D437" s="39">
@@ -11735,7 +11780,7 @@
         <v>41760</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C438" s="13">
         <v>1.25</v>
@@ -11755,13 +11800,13 @@
       <c r="I438" s="13"/>
       <c r="J438" s="11"/>
       <c r="K438" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C439" s="13"/>
       <c r="D439" s="39">
@@ -11781,7 +11826,7 @@
         <v>41791</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C440" s="13">
         <v>1.25</v>
@@ -11806,7 +11851,7 @@
         <v>41821</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C441" s="13">
         <v>1.25</v>
@@ -11830,7 +11875,7 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C442" s="13"/>
       <c r="D442" s="39">
@@ -11850,7 +11895,7 @@
         <v>41852</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C443" s="13">
         <v>1.25</v>
@@ -11874,7 +11919,7 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C444" s="13"/>
       <c r="D444" s="39">
@@ -11894,7 +11939,7 @@
         <v>41883</v>
       </c>
       <c r="B445" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C445" s="13">
         <v>1.25</v>
@@ -11919,7 +11964,7 @@
         <v>41913</v>
       </c>
       <c r="B446" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C446" s="13">
         <v>1.25</v>
@@ -11944,7 +11989,7 @@
         <v>41944</v>
       </c>
       <c r="B447" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C447" s="13">
         <v>1.25</v>
@@ -11968,7 +12013,7 @@
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C448" s="13"/>
       <c r="D448" s="39">
@@ -11983,13 +12028,13 @@
       <c r="I448" s="13"/>
       <c r="J448" s="11"/>
       <c r="K448" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C449" s="13"/>
       <c r="D449" s="39">
@@ -12009,7 +12054,7 @@
         <v>41974</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C450" s="13">
         <v>1.25</v>
@@ -12033,7 +12078,7 @@
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="39">
@@ -12048,13 +12093,13 @@
       <c r="I451" s="13"/>
       <c r="J451" s="11"/>
       <c r="K451" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C452" s="13"/>
       <c r="D452" s="39"/>
@@ -12073,7 +12118,7 @@
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C453" s="13"/>
       <c r="D453" s="39">
@@ -12089,7 +12134,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12110,7 +12155,7 @@
         <v>42005</v>
       </c>
       <c r="B455" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C455" s="13">
         <v>1.25</v>
@@ -12126,13 +12171,13 @@
       <c r="I455" s="13"/>
       <c r="J455" s="11"/>
       <c r="K455" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C456" s="13"/>
       <c r="D456" s="39"/>
@@ -12151,7 +12196,7 @@
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C457" s="13"/>
       <c r="D457" s="39"/>
@@ -12162,13 +12207,13 @@
       <c r="I457" s="13"/>
       <c r="J457" s="11"/>
       <c r="K457" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C458" s="13"/>
       <c r="D458" s="39">
@@ -12188,7 +12233,7 @@
         <v>42036</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C459" s="13">
         <v>1.25</v>
@@ -12206,13 +12251,13 @@
       <c r="I459" s="13"/>
       <c r="J459" s="11"/>
       <c r="K459" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C460" s="13"/>
       <c r="D460" s="39"/>
@@ -12231,7 +12276,7 @@
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C461" s="13"/>
       <c r="D461" s="39"/>
@@ -12250,7 +12295,7 @@
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C462" s="13"/>
       <c r="D462" s="39"/>
@@ -12269,7 +12314,7 @@
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23"/>
       <c r="B463" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C463" s="13"/>
       <c r="D463" s="39">
@@ -12289,7 +12334,7 @@
         <v>42064</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C464" s="13">
         <v>1.25</v>
@@ -12313,7 +12358,7 @@
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C465" s="13"/>
       <c r="D465" s="39"/>
@@ -12326,13 +12371,13 @@
         <v>2</v>
       </c>
       <c r="K465" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23"/>
       <c r="B466" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C466" s="13"/>
       <c r="D466" s="39"/>
@@ -12345,13 +12390,13 @@
         <v>2</v>
       </c>
       <c r="K466" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="39"/>
@@ -12364,13 +12409,13 @@
         <v>2</v>
       </c>
       <c r="K467" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C468" s="13"/>
       <c r="D468" s="39"/>
@@ -12389,7 +12434,7 @@
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23"/>
       <c r="B469" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C469" s="13"/>
       <c r="D469" s="39"/>
@@ -12408,7 +12453,7 @@
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C470" s="13"/>
       <c r="D470" s="39"/>
@@ -12421,13 +12466,13 @@
         <v>4</v>
       </c>
       <c r="K470" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C471" s="13"/>
       <c r="D471" s="39">
@@ -12447,7 +12492,7 @@
         <v>42095</v>
       </c>
       <c r="B472" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C472" s="13">
         <v>1.25</v>
@@ -12465,13 +12510,13 @@
       <c r="I472" s="13"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23"/>
       <c r="B473" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="39"/>
@@ -12484,13 +12529,13 @@
       <c r="I473" s="13"/>
       <c r="J473" s="11"/>
       <c r="K473" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C474" s="13"/>
       <c r="D474" s="39">
@@ -12510,7 +12555,7 @@
         <v>42125</v>
       </c>
       <c r="B475" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C475" s="13">
         <v>1.25</v>
@@ -12528,13 +12573,13 @@
         <v>2</v>
       </c>
       <c r="K475" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C476" s="13"/>
       <c r="D476" s="39">
@@ -12553,7 +12598,7 @@
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C477" s="13"/>
       <c r="D477" s="39">
@@ -12573,7 +12618,7 @@
         <v>42156</v>
       </c>
       <c r="B478" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C478" s="13">
         <v>1.25</v>
@@ -12598,7 +12643,7 @@
         <v>42186</v>
       </c>
       <c r="B479" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C479" s="13">
         <v>1.25</v>
@@ -12620,7 +12665,7 @@
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C480" s="13"/>
       <c r="D480" s="39">
@@ -12643,7 +12688,7 @@
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C481" s="13"/>
       <c r="D481" s="39">
@@ -12663,7 +12708,7 @@
         <v>42217</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C482" s="13">
         <v>1.25</v>
@@ -12683,13 +12728,13 @@
       <c r="I482" s="13"/>
       <c r="J482" s="11"/>
       <c r="K482" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C483" s="13"/>
       <c r="D483" s="39">
@@ -12709,7 +12754,7 @@
         <v>42248</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C484" s="13">
         <v>1.25</v>
@@ -12729,13 +12774,13 @@
       <c r="I484" s="13"/>
       <c r="J484" s="11"/>
       <c r="K484" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
@@ -12754,7 +12799,7 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
@@ -12767,13 +12812,13 @@
         <v>3</v>
       </c>
       <c r="K486" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C487" s="13"/>
       <c r="D487" s="39"/>
@@ -12786,13 +12831,13 @@
         <v>2</v>
       </c>
       <c r="K487" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C488" s="13"/>
       <c r="D488" s="39">
@@ -12812,7 +12857,7 @@
         <v>42278</v>
       </c>
       <c r="B489" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C489" s="13">
         <v>1.25</v>
@@ -12832,13 +12877,13 @@
         <v>2.5</v>
       </c>
       <c r="K489" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23"/>
       <c r="B490" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39">
@@ -12858,7 +12903,7 @@
         <v>42309</v>
       </c>
       <c r="B491" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C491" s="13">
         <v>1.25</v>
@@ -12883,7 +12928,7 @@
         <v>42339</v>
       </c>
       <c r="B492" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C492" s="13">
         <v>1.25</v>
@@ -12901,13 +12946,13 @@
       <c r="I492" s="13"/>
       <c r="J492" s="11"/>
       <c r="K492" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39"/>
@@ -12922,13 +12967,13 @@
         <v>3</v>
       </c>
       <c r="K493" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39">
@@ -12944,7 +12989,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B495" s="49"/>
       <c r="C495" s="13"/>
@@ -12965,7 +13010,7 @@
         <v>42370</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C496" s="13">
         <v>1.25</v>
@@ -12981,13 +13026,13 @@
       <c r="I496" s="13"/>
       <c r="J496" s="11"/>
       <c r="K496" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="39"/>
@@ -12998,13 +13043,13 @@
       <c r="I497" s="13"/>
       <c r="J497" s="11"/>
       <c r="K497" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23"/>
       <c r="B498" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
@@ -13017,13 +13062,13 @@
         <v>3</v>
       </c>
       <c r="K498" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C499" s="13"/>
       <c r="D499" s="39">
@@ -13043,7 +13088,7 @@
         <v>42401</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C500" s="13">
         <v>1.25</v>
@@ -13061,13 +13106,13 @@
       <c r="I500" s="13"/>
       <c r="J500" s="11"/>
       <c r="K500" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23"/>
       <c r="B501" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C501" s="13"/>
       <c r="D501" s="39">
@@ -13086,7 +13131,7 @@
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C502" s="13"/>
       <c r="D502" s="39">
@@ -13099,13 +13144,13 @@
       <c r="I502" s="13"/>
       <c r="J502" s="11"/>
       <c r="K502" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
@@ -13116,13 +13161,13 @@
       <c r="I503" s="13"/>
       <c r="J503" s="11"/>
       <c r="K503" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C504" s="13"/>
       <c r="D504" s="39">
@@ -13142,7 +13187,7 @@
         <v>42430</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C505" s="13">
         <v>1.25</v>
@@ -13160,13 +13205,13 @@
         <v>12</v>
       </c>
       <c r="K505" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23"/>
       <c r="B506" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C506" s="13"/>
       <c r="D506" s="39"/>
@@ -13185,7 +13230,7 @@
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C507" s="13"/>
       <c r="D507" s="39"/>
@@ -13198,13 +13243,13 @@
         <v>2</v>
       </c>
       <c r="K507" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C508" s="13"/>
       <c r="D508" s="39">
@@ -13221,7 +13266,7 @@
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
@@ -13234,13 +13279,13 @@
         <v>2</v>
       </c>
       <c r="K509" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23"/>
       <c r="B510" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C510" s="13"/>
       <c r="D510" s="39"/>
@@ -13259,7 +13304,7 @@
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C511" s="13"/>
       <c r="D511" s="39"/>
@@ -13278,7 +13323,7 @@
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
@@ -13291,7 +13336,7 @@
         <v>3</v>
       </c>
       <c r="K512" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
@@ -13300,7 +13345,7 @@
         <v>42461</v>
       </c>
       <c r="B513" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C513" s="13">
         <v>1.25</v>
@@ -13325,7 +13370,7 @@
         <v>42491</v>
       </c>
       <c r="B514" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C514" s="13">
         <v>1.25</v>
@@ -13349,7 +13394,7 @@
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23"/>
       <c r="B515" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C515" s="13"/>
       <c r="D515" s="39"/>
@@ -13362,13 +13407,13 @@
         <v>6.5</v>
       </c>
       <c r="K515" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39"/>
@@ -13387,7 +13432,7 @@
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C517" s="13"/>
       <c r="D517" s="39"/>
@@ -13406,7 +13451,7 @@
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23"/>
       <c r="B518" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C518" s="13"/>
       <c r="D518" s="39"/>
@@ -13419,13 +13464,13 @@
         <v>2</v>
       </c>
       <c r="K518" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23"/>
       <c r="B519" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39">
@@ -13445,7 +13490,7 @@
         <v>42522</v>
       </c>
       <c r="B520" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C520" s="13">
         <v>1.25</v>
@@ -13463,13 +13508,13 @@
         <v>2</v>
       </c>
       <c r="K520" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C521" s="13"/>
       <c r="D521" s="39">
@@ -13489,7 +13534,7 @@
         <v>42552</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C522" s="13">
         <v>1.25</v>
@@ -13511,7 +13556,7 @@
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
       <c r="B523" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
@@ -13528,7 +13573,7 @@
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
@@ -13545,7 +13590,7 @@
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23"/>
       <c r="B525" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39">
@@ -13565,7 +13610,7 @@
         <v>42583</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C526" s="13">
         <v>1.25</v>
@@ -13589,7 +13634,7 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
@@ -13608,7 +13653,7 @@
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C528" s="13"/>
       <c r="D528" s="39"/>
@@ -13621,13 +13666,13 @@
         <v>5</v>
       </c>
       <c r="K528" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
@@ -13646,7 +13691,7 @@
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23"/>
       <c r="B530" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C530" s="13"/>
       <c r="D530" s="39">
@@ -13666,7 +13711,7 @@
         <v>42614</v>
       </c>
       <c r="B531" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C531" s="13">
         <v>1.25</v>
@@ -13688,7 +13733,7 @@
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23"/>
       <c r="B532" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C532" s="13"/>
       <c r="D532" s="39"/>
@@ -13705,7 +13750,7 @@
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23"/>
       <c r="B533" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C533" s="13"/>
       <c r="D533" s="39">
@@ -13722,7 +13767,7 @@
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C534" s="13"/>
       <c r="D534" s="39">
@@ -13739,7 +13784,7 @@
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C535" s="13"/>
       <c r="D535" s="39">
@@ -13759,7 +13804,7 @@
         <v>42644</v>
       </c>
       <c r="B536" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C536" s="13">
         <v>1.25</v>
@@ -13781,13 +13826,13 @@
         <v>0.25</v>
       </c>
       <c r="K536" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
@@ -13806,7 +13851,7 @@
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23"/>
       <c r="B538" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C538" s="13"/>
       <c r="D538" s="39">
@@ -13826,7 +13871,7 @@
         <v>42675</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C539" s="13">
         <v>1.25</v>
@@ -13846,7 +13891,7 @@
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23"/>
       <c r="B540" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C540" s="13"/>
       <c r="D540" s="39"/>
@@ -13861,7 +13906,7 @@
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C541" s="13"/>
       <c r="D541" s="39"/>
@@ -13876,7 +13921,7 @@
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23"/>
       <c r="B542" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C542" s="13"/>
       <c r="D542" s="39"/>
@@ -13891,7 +13936,7 @@
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23"/>
       <c r="B543" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
@@ -13906,7 +13951,7 @@
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23"/>
       <c r="B544" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
@@ -13921,7 +13966,7 @@
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23"/>
       <c r="B545" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C545" s="13"/>
       <c r="D545" s="39"/>
@@ -13936,7 +13981,7 @@
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23"/>
       <c r="B546" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C546" s="13"/>
       <c r="D546" s="39"/>
@@ -13954,7 +13999,7 @@
         <v>42705</v>
       </c>
       <c r="B547" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C547" s="13">
         <v>1.25</v>
@@ -13972,13 +14017,13 @@
         <v>2</v>
       </c>
       <c r="K547" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23"/>
       <c r="B548" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
@@ -13991,13 +14036,13 @@
         <v>2</v>
       </c>
       <c r="K548" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="23"/>
       <c r="B549" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39">
@@ -14013,7 +14058,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B550" s="49"/>
       <c r="C550" s="13"/>
@@ -14034,7 +14079,7 @@
         <v>42736</v>
       </c>
       <c r="B551" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C551" s="13">
         <v>1.25</v>
@@ -14050,13 +14095,13 @@
       <c r="I551" s="13"/>
       <c r="J551" s="11"/>
       <c r="K551" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C552" s="13"/>
       <c r="D552" s="39"/>
@@ -14067,13 +14112,13 @@
       <c r="I552" s="13"/>
       <c r="J552" s="11"/>
       <c r="K552" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23"/>
       <c r="B553" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
@@ -14086,13 +14131,13 @@
       <c r="I553" s="13"/>
       <c r="J553" s="11"/>
       <c r="K553" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -14105,7 +14150,7 @@
         <v>7</v>
       </c>
       <c r="K554" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
@@ -14114,7 +14159,7 @@
         <v>42767</v>
       </c>
       <c r="B555" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C555" s="13">
         <v>1.25</v>
@@ -14138,7 +14183,7 @@
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23"/>
       <c r="B556" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -14157,7 +14202,7 @@
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -14179,7 +14224,7 @@
         <v>42795</v>
       </c>
       <c r="B558" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C558" s="13">
         <v>1.25</v>
@@ -14197,13 +14242,13 @@
       <c r="I558" s="13"/>
       <c r="J558" s="11"/>
       <c r="K558" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23"/>
       <c r="B559" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
@@ -14222,7 +14267,7 @@
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23"/>
       <c r="B560" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -14241,7 +14286,7 @@
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23"/>
       <c r="B561" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C561" s="13"/>
       <c r="D561" s="39"/>
@@ -14254,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="K561" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
@@ -14263,7 +14308,7 @@
         <v>42826</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
@@ -14287,7 +14332,7 @@
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C563" s="13"/>
       <c r="D563" s="39"/>
@@ -14300,13 +14345,13 @@
         <v>2</v>
       </c>
       <c r="K563" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23"/>
       <c r="B564" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
@@ -14325,7 +14370,7 @@
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23"/>
       <c r="B565" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
@@ -14344,7 +14389,7 @@
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23"/>
       <c r="B566" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
@@ -14357,7 +14402,7 @@
         <v>9</v>
       </c>
       <c r="K566" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
@@ -14366,7 +14411,7 @@
         <v>42856</v>
       </c>
       <c r="B567" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C567" s="13">
         <v>1.25</v>
@@ -14384,13 +14429,13 @@
         <v>6</v>
       </c>
       <c r="K567" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
@@ -14422,7 +14467,7 @@
         <v>4</v>
       </c>
       <c r="K569" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
@@ -14431,7 +14476,7 @@
         <v>42887</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C570" s="13">
         <v>1.25</v>
@@ -14449,13 +14494,13 @@
       <c r="I570" s="13"/>
       <c r="J570" s="11"/>
       <c r="K570" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C571" s="13"/>
       <c r="D571" s="39"/>
@@ -14477,7 +14522,7 @@
         <v>42917</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
@@ -14495,13 +14540,13 @@
         <v>3</v>
       </c>
       <c r="K572" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
@@ -14520,7 +14565,7 @@
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23"/>
       <c r="B574" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
@@ -14539,7 +14584,7 @@
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -14561,7 +14606,7 @@
         <v>42948</v>
       </c>
       <c r="B576" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C576" s="13">
         <v>1.25</v>
@@ -14585,7 +14630,7 @@
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -14601,7 +14646,7 @@
         <v>3</v>
       </c>
       <c r="K577" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
@@ -14610,7 +14655,7 @@
         <v>42979</v>
       </c>
       <c r="B578" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C578" s="13">
         <v>1.25</v>
@@ -14634,7 +14679,7 @@
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="23"/>
       <c r="B579" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C579" s="13"/>
       <c r="D579" s="39"/>
@@ -14647,13 +14692,13 @@
         <v>2</v>
       </c>
       <c r="K579" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="23"/>
       <c r="B580" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -14675,7 +14720,7 @@
         <v>43009</v>
       </c>
       <c r="B581" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C581" s="13">
         <v>1.25</v>
@@ -14699,7 +14744,7 @@
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
@@ -14724,7 +14769,7 @@
         <v>43040</v>
       </c>
       <c r="B583" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C583" s="13">
         <v>1.25</v>
@@ -14748,7 +14793,7 @@
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="23"/>
       <c r="B584" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
@@ -14761,13 +14806,13 @@
         <v>2</v>
       </c>
       <c r="K584" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -14786,7 +14831,7 @@
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="23"/>
       <c r="B586" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
@@ -14805,7 +14850,7 @@
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="23"/>
       <c r="B587" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
@@ -14818,7 +14863,7 @@
         <v>4</v>
       </c>
       <c r="K587" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
@@ -14827,7 +14872,7 @@
         <v>43070</v>
       </c>
       <c r="B588" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C588" s="13">
         <v>1.25</v>
@@ -14845,12 +14890,12 @@
         <v>7</v>
       </c>
       <c r="K588" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B589" s="49"/>
       <c r="C589" s="13"/>
@@ -14871,7 +14916,7 @@
         <v>43101</v>
       </c>
       <c r="B590" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C590" s="13">
         <v>1.25</v>
@@ -14887,7 +14932,7 @@
       <c r="I590" s="13"/>
       <c r="J590" s="11"/>
       <c r="K590" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
@@ -14896,7 +14941,7 @@
         <v>43132</v>
       </c>
       <c r="B591" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C591" s="13">
         <v>1.25</v>
@@ -14912,13 +14957,13 @@
       <c r="I591" s="13"/>
       <c r="J591" s="11"/>
       <c r="K591" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="23"/>
       <c r="B592" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
@@ -14931,13 +14976,13 @@
         <v>3</v>
       </c>
       <c r="K592" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="23"/>
       <c r="B593" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C593" s="13"/>
       <c r="D593" s="39"/>
@@ -14959,7 +15004,7 @@
         <v>43160</v>
       </c>
       <c r="B594" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C594" s="13">
         <v>1.25</v>
@@ -14983,7 +15028,7 @@
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="23"/>
       <c r="B595" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C595" s="13"/>
       <c r="D595" s="39"/>
@@ -14996,7 +15041,7 @@
         <v>3</v>
       </c>
       <c r="K595" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
@@ -15005,7 +15050,7 @@
         <v>43191</v>
       </c>
       <c r="B596" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C596" s="13">
         <v>1.25</v>
@@ -15023,7 +15068,7 @@
         <v>6</v>
       </c>
       <c r="K596" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
@@ -15032,7 +15077,7 @@
         <v>43221</v>
       </c>
       <c r="B597" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C597" s="13">
         <v>1.25</v>
@@ -15050,13 +15095,13 @@
         <v>2</v>
       </c>
       <c r="K597" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="23"/>
       <c r="B598" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
@@ -15069,13 +15114,13 @@
         <v>3</v>
       </c>
       <c r="K598" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="23"/>
       <c r="B599" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
@@ -15088,13 +15133,13 @@
       <c r="I599" s="13"/>
       <c r="J599" s="11"/>
       <c r="K599" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="23"/>
       <c r="B600" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="39"/>
@@ -15116,7 +15161,7 @@
         <v>43252</v>
       </c>
       <c r="B601" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C601" s="13">
         <v>1.25</v>
@@ -15134,13 +15179,13 @@
       <c r="I601" s="13"/>
       <c r="J601" s="11"/>
       <c r="K601" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="23"/>
       <c r="B602" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C602" s="13"/>
       <c r="D602" s="39"/>
@@ -15162,7 +15207,7 @@
         <v>43282</v>
       </c>
       <c r="B603" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C603" s="13">
         <v>1.25</v>
@@ -15186,7 +15231,7 @@
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="23"/>
       <c r="B604" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
@@ -15199,13 +15244,13 @@
         <v>3</v>
       </c>
       <c r="K604" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="23"/>
       <c r="B605" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
@@ -15227,7 +15272,7 @@
         <v>43313</v>
       </c>
       <c r="B606" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C606" s="13">
         <v>1.25</v>
@@ -15245,13 +15290,13 @@
         <v>2</v>
       </c>
       <c r="K606" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="23"/>
       <c r="B607" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C607" s="13"/>
       <c r="D607" s="39"/>
@@ -15273,7 +15318,7 @@
         <v>43344</v>
       </c>
       <c r="B608" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C608" s="13">
         <v>1.25</v>
@@ -15291,13 +15336,13 @@
       <c r="I608" s="13"/>
       <c r="J608" s="11"/>
       <c r="K608" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="23"/>
       <c r="B609" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
@@ -15310,7 +15355,7 @@
       <c r="I609" s="13"/>
       <c r="J609" s="11"/>
       <c r="K609" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
@@ -17226,127 +17271,125 @@
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A698" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C698" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D698" s="39"/>
+        <v>502</v>
+      </c>
+      <c r="C698" s="13"/>
+      <c r="D698" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20"/>
+      <c r="K698" s="48"/>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A699" s="40"/>
+      <c r="A699" s="40">
+        <v>44652</v>
+      </c>
       <c r="B699" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C699" s="13"/>
-      <c r="D699" s="39">
-        <v>0.75</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C699" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13"/>
+      <c r="G699" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
       <c r="K699" s="48">
-        <v>44671</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B700" s="20"/>
-      <c r="C700" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D700" s="39"/>
+      <c r="A700" s="40"/>
+      <c r="B700" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C700" s="13"/>
+      <c r="D700" s="39">
+        <v>0.75</v>
+      </c>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G700" s="13"/>
       <c r="H700" s="39"/>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
-      <c r="K700" s="20"/>
+      <c r="K700" s="48">
+        <v>44671</v>
+      </c>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A701" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C701" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D701" s="39"/>
+        <v>502</v>
+      </c>
+      <c r="C701" s="13"/>
+      <c r="D701" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H701" s="39">
-        <v>1</v>
-      </c>
+      <c r="G701" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H701" s="39"/>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
-      <c r="K701" s="48">
-        <v>44691</v>
-      </c>
+      <c r="K701" s="48"/>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="40"/>
+      <c r="A702" s="40">
+        <v>44682</v>
+      </c>
       <c r="B702" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C702" s="13"/>
-      <c r="D702" s="39"/>
+        <v>504</v>
+      </c>
+      <c r="C702" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D702" s="39">
+        <v>7</v>
+      </c>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G702" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H702" s="39"/>
       <c r="I702" s="9"/>
-      <c r="J702" s="11">
-        <v>2</v>
-      </c>
+      <c r="J702" s="11"/>
       <c r="K702" s="20" t="s">
-        <v>100</v>
+        <v>503</v>
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20" t="s">
-        <v>95</v>
+        <v>501</v>
       </c>
       <c r="C703" s="13"/>
       <c r="D703" s="39">
-        <v>4</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="E703" s="9"/>
-      <c r="F703" s="20">
-        <v>5</v>
-      </c>
+      <c r="F703" s="20"/>
       <c r="G703" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -17354,179 +17397,169 @@
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
-      <c r="K703" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="K703" s="20"/>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" s="40"/>
+      <c r="A704" s="40">
+        <v>44713</v>
+      </c>
       <c r="B704" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C704" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C704" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D704" s="39"/>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H704" s="39"/>
+      <c r="G704" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H704" s="39">
+        <v>1</v>
+      </c>
       <c r="I704" s="9"/>
-      <c r="J704" s="11">
-        <v>7</v>
-      </c>
-      <c r="K704" s="20" t="s">
-        <v>103</v>
+      <c r="J704" s="11"/>
+      <c r="K704" s="48">
+        <v>44691</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C705" s="13"/>
       <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H705" s="39"/>
       <c r="I705" s="9"/>
       <c r="J705" s="11">
-        <v>1</v>
-      </c>
-      <c r="K705" s="48">
-        <v>44736</v>
+        <v>2</v>
+      </c>
+      <c r="K705" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A706" s="40"/>
       <c r="B706" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C706" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D706" s="39"/>
+        <v>95</v>
+      </c>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39">
+        <v>4</v>
+      </c>
       <c r="E706" s="9"/>
-      <c r="F706" s="20"/>
-      <c r="G706" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="F706" s="20">
+        <v>5</v>
+      </c>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H706" s="39"/>
       <c r="I706" s="9"/>
-      <c r="J706" s="11">
-        <v>3</v>
-      </c>
+      <c r="J706" s="11"/>
       <c r="K706" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A707" s="40"/>
       <c r="B707" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C707" s="13">
-        <v>1.25</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C707" s="13"/>
       <c r="D707" s="39"/>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K707" s="20" t="s">
-        <v>105</v>
+        <v>497</v>
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A708" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A708" s="40"/>
       <c r="B708" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C708" s="13">
-        <v>1.25</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C708" s="13"/>
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G708" s="13"/>
       <c r="H708" s="39"/>
       <c r="I708" s="9"/>
       <c r="J708" s="11">
-        <v>3</v>
-      </c>
-      <c r="K708" s="20" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="K708" s="48">
+        <v>44736</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
-        <v>55</v>
+        <v>499</v>
       </c>
       <c r="C709" s="13"/>
-      <c r="D709" s="39"/>
+      <c r="D709" s="39">
+        <v>2</v>
+      </c>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
       <c r="G709" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H709" s="39">
-        <v>4</v>
-      </c>
+      <c r="H709" s="39"/>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
-      <c r="K709" s="20" t="s">
-        <v>107</v>
+      <c r="K709" s="48" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20" t="s">
-        <v>47</v>
+        <v>500</v>
       </c>
       <c r="C710" s="13"/>
-      <c r="D710" s="39"/>
+      <c r="D710" s="39">
+        <v>0.18100000000000002</v>
+      </c>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
       <c r="G710" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H710" s="39">
-        <v>1</v>
-      </c>
+      <c r="H710" s="39"/>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
-      <c r="K710" s="48">
-        <v>44832</v>
-      </c>
+      <c r="K710" s="48"/>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>44835</v>
+        <v>44743</v>
       </c>
       <c r="B711" s="20" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C711" s="13">
         <v>1.25</v>
@@ -17540,89 +17573,89 @@
       </c>
       <c r="H711" s="39"/>
       <c r="I711" s="9"/>
-      <c r="J711" s="11"/>
+      <c r="J711" s="11">
+        <v>3</v>
+      </c>
       <c r="K711" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C712" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D712" s="39"/>
+        <v>494</v>
+      </c>
+      <c r="C712" s="13"/>
+      <c r="D712" s="39">
+        <v>3</v>
+      </c>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H712" s="39">
-        <v>3</v>
-      </c>
+      <c r="G712" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H712" s="39"/>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
       <c r="K712" s="20" t="s">
-        <v>110</v>
+        <v>495</v>
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20" t="s">
-        <v>68</v>
+        <v>496</v>
       </c>
       <c r="C713" s="13"/>
-      <c r="D713" s="39"/>
+      <c r="D713" s="39">
+        <v>0.30399999999999999</v>
+      </c>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
       <c r="G713" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H713" s="39">
-        <v>3</v>
-      </c>
+      <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
-      <c r="K713" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="K713" s="20"/>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A714" s="40"/>
+      <c r="A714" s="40">
+        <v>44774</v>
+      </c>
       <c r="B714" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="C714" s="13"/>
-      <c r="D714" s="39">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C714" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D714" s="39"/>
       <c r="E714" s="9"/>
       <c r="F714" s="20"/>
-      <c r="G714" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G714" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H714" s="39"/>
       <c r="I714" s="9"/>
-      <c r="J714" s="11"/>
+      <c r="J714" s="11">
+        <v>4</v>
+      </c>
       <c r="K714" s="20" t="s">
-        <v>488</v>
+        <v>104</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C715" s="13"/>
       <c r="D715" s="39">
-        <v>0.15600000000000003</v>
+        <v>4</v>
       </c>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
@@ -17633,60 +17666,60 @@
       <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="20"/>
+      <c r="K715" s="20" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A716" s="40"/>
       <c r="B716" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C716" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D716" s="39"/>
+        <v>493</v>
+      </c>
+      <c r="C716" s="13"/>
+      <c r="D716" s="39">
+        <v>6.200000000000002E-2</v>
+      </c>
       <c r="E716" s="9"/>
       <c r="F716" s="20"/>
-      <c r="G716" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H716" s="39">
-        <v>2</v>
-      </c>
+      <c r="G716" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="K716" s="20"/>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" s="40"/>
+      <c r="A717" s="40">
+        <v>44805</v>
+      </c>
       <c r="B717" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C717" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C717" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D717" s="39"/>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
-      <c r="G717" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H717" s="39">
-        <v>1</v>
-      </c>
+      <c r="G717" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H717" s="39"/>
       <c r="I717" s="9"/>
-      <c r="J717" s="11"/>
-      <c r="K717" s="48">
-        <v>44900</v>
+      <c r="J717" s="11">
+        <v>3</v>
+      </c>
+      <c r="K717" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C718" s="13"/>
       <c r="D718" s="39"/>
@@ -17697,18 +17730,18 @@
         <v/>
       </c>
       <c r="H718" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="48">
-        <v>44911</v>
+      <c r="K718" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
@@ -17719,22 +17752,22 @@
         <v/>
       </c>
       <c r="H719" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
-      <c r="K719" s="48" t="s">
-        <v>113</v>
+      <c r="K719" s="48">
+        <v>44832</v>
       </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C720" s="13"/>
       <c r="D720" s="39">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="E720" s="9"/>
       <c r="F720" s="20"/>
@@ -17748,75 +17781,79 @@
       <c r="K720" s="48"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A721" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B721" s="20"/>
-      <c r="C721" s="13"/>
+      <c r="A721" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B721" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C721" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D721" s="39"/>
       <c r="E721" s="9"/>
       <c r="F721" s="20"/>
-      <c r="G721" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G721" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H721" s="39"/>
       <c r="I721" s="9"/>
       <c r="J721" s="11"/>
-      <c r="K721" s="20"/>
+      <c r="K721" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A722" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A722" s="40"/>
       <c r="B722" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C722" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D722" s="39"/>
+        <v>489</v>
+      </c>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39">
+        <v>0.17900000000000002</v>
+      </c>
       <c r="E722" s="9"/>
       <c r="F722" s="20"/>
-      <c r="G722" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H722" s="39">
-        <v>1</v>
-      </c>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="39"/>
       <c r="I722" s="9"/>
       <c r="J722" s="11"/>
-      <c r="K722" s="48">
-        <v>44943</v>
-      </c>
+      <c r="K722" s="20"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A723" s="40"/>
+      <c r="A723" s="40">
+        <v>44866</v>
+      </c>
       <c r="B723" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C723" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C723" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D723" s="39"/>
       <c r="E723" s="9"/>
       <c r="F723" s="20"/>
-      <c r="G723" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G723" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H723" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I723" s="9"/>
       <c r="J723" s="11"/>
-      <c r="K723" s="48">
-        <v>44950</v>
+      <c r="K723" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C724" s="13"/>
       <c r="D724" s="39"/>
@@ -17827,48 +17864,44 @@
         <v/>
       </c>
       <c r="H724" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
-      <c r="K724" s="48" t="s">
-        <v>114</v>
+      <c r="K724" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A725" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A725" s="40"/>
       <c r="B725" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C725" s="13">
-        <v>1.25</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C725" s="13"/>
       <c r="D725" s="39">
-        <v>5.2290000000000001</v>
+        <v>12</v>
       </c>
       <c r="E725" s="9"/>
       <c r="F725" s="20"/>
-      <c r="G725" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H725" s="39">
-        <v>2.7709999999999999</v>
-      </c>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
-      <c r="K725" s="20"/>
+      <c r="K725" s="20" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="C726" s="13"/>
       <c r="D726" s="39">
-        <v>1</v>
+        <v>0.15600000000000003</v>
       </c>
       <c r="E726" s="9"/>
       <c r="F726" s="20"/>
@@ -17879,16 +17912,14 @@
       <c r="H726" s="39"/>
       <c r="I726" s="9"/>
       <c r="J726" s="11"/>
-      <c r="K726" s="48">
-        <v>44978</v>
-      </c>
+      <c r="K726" s="20"/>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>44986</v>
+        <v>44896</v>
       </c>
       <c r="B727" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C727" s="13">
         <v>1.25</v>
@@ -17900,66 +17931,64 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H727" s="39"/>
+      <c r="H727" s="39">
+        <v>2</v>
+      </c>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
       <c r="K727" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A728" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A728" s="40"/>
       <c r="B728" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C728" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D728" s="39">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
       <c r="E728" s="9"/>
       <c r="F728" s="20"/>
-      <c r="G728" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H728" s="39"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39">
+        <v>1</v>
+      </c>
       <c r="I728" s="9"/>
       <c r="J728" s="11"/>
-      <c r="K728" s="20" t="s">
-        <v>119</v>
+      <c r="K728" s="48">
+        <v>44900</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C729" s="13"/>
-      <c r="D729" s="39">
-        <v>4</v>
-      </c>
+      <c r="D729" s="39"/>
       <c r="E729" s="9"/>
       <c r="F729" s="20"/>
       <c r="G729" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H729" s="39"/>
+      <c r="H729" s="39">
+        <v>1</v>
+      </c>
       <c r="I729" s="9"/>
       <c r="J729" s="11"/>
-      <c r="K729" s="20" t="s">
-        <v>120</v>
+      <c r="K729" s="48">
+        <v>44911</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B730" s="20"/>
+      <c r="A730" s="40"/>
+      <c r="B730" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C730" s="13"/>
       <c r="D730" s="39"/>
       <c r="E730" s="9"/>
@@ -17968,18 +17997,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H730" s="39"/>
+      <c r="H730" s="39">
+        <v>3</v>
+      </c>
       <c r="I730" s="9"/>
       <c r="J730" s="11"/>
-      <c r="K730" s="20"/>
+      <c r="K730" s="48" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B731" s="20"/>
+      <c r="A731" s="40"/>
+      <c r="B731" s="20" t="s">
+        <v>485</v>
+      </c>
       <c r="C731" s="13"/>
-      <c r="D731" s="39"/>
+      <c r="D731" s="39">
+        <v>0.1</v>
+      </c>
       <c r="E731" s="9"/>
       <c r="F731" s="20"/>
       <c r="G731" s="13" t="str">
@@ -17989,11 +18024,11 @@
       <c r="H731" s="39"/>
       <c r="I731" s="9"/>
       <c r="J731" s="11"/>
-      <c r="K731" s="20"/>
+      <c r="K731" s="48"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A732" s="40">
-        <v>45108</v>
+      <c r="A732" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18011,27 +18046,35 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B733" s="20"/>
-      <c r="C733" s="13"/>
+        <v>44927</v>
+      </c>
+      <c r="B733" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C733" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D733" s="39"/>
       <c r="E733" s="9"/>
       <c r="F733" s="20"/>
-      <c r="G733" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H733" s="39"/>
+      <c r="G733" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H733" s="39">
+        <v>1</v>
+      </c>
       <c r="I733" s="9"/>
       <c r="J733" s="11"/>
-      <c r="K733" s="20"/>
+      <c r="K733" s="48">
+        <v>44943</v>
+      </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A734" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B734" s="20"/>
+      <c r="A734" s="40"/>
+      <c r="B734" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C734" s="13"/>
       <c r="D734" s="39"/>
       <c r="E734" s="9"/>
@@ -18040,16 +18083,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H734" s="39"/>
+      <c r="H734" s="39">
+        <v>1</v>
+      </c>
       <c r="I734" s="9"/>
       <c r="J734" s="11"/>
-      <c r="K734" s="20"/>
+      <c r="K734" s="48">
+        <v>44950</v>
+      </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B735" s="20"/>
+      <c r="A735" s="40"/>
+      <c r="B735" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C735" s="13"/>
       <c r="D735" s="39"/>
       <c r="E735" s="9"/>
@@ -18058,36 +18105,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H735" s="39"/>
+      <c r="H735" s="39">
+        <v>2</v>
+      </c>
       <c r="I735" s="9"/>
       <c r="J735" s="11"/>
-      <c r="K735" s="20"/>
+      <c r="K735" s="48" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B736" s="20"/>
-      <c r="C736" s="13"/>
-      <c r="D736" s="39"/>
+        <v>44958</v>
+      </c>
+      <c r="B736" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C736" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D736" s="39">
+        <v>5.2290000000000001</v>
+      </c>
       <c r="E736" s="9"/>
       <c r="F736" s="20"/>
-      <c r="G736" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H736" s="39"/>
+      <c r="G736" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H736" s="39">
+        <v>2.7709999999999999</v>
+      </c>
       <c r="I736" s="9"/>
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A737" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B737" s="20"/>
+      <c r="A737" s="40"/>
+      <c r="B737" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C737" s="13"/>
-      <c r="D737" s="39"/>
+      <c r="D737" s="39">
+        <v>1</v>
+      </c>
       <c r="E737" s="9"/>
       <c r="F737" s="20"/>
       <c r="G737" s="13" t="str">
@@ -18097,51 +18158,69 @@
       <c r="H737" s="39"/>
       <c r="I737" s="9"/>
       <c r="J737" s="11"/>
-      <c r="K737" s="20"/>
+      <c r="K737" s="48">
+        <v>44978</v>
+      </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B738" s="20"/>
-      <c r="C738" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B738" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C738" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D738" s="39"/>
       <c r="E738" s="9"/>
       <c r="F738" s="20"/>
-      <c r="G738" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G738" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H738" s="39"/>
       <c r="I738" s="9"/>
       <c r="J738" s="11"/>
-      <c r="K738" s="20"/>
+      <c r="K738" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B739" s="20"/>
-      <c r="C739" s="13"/>
-      <c r="D739" s="39"/>
+        <v>45017</v>
+      </c>
+      <c r="B739" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C739" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D739" s="39">
+        <v>2</v>
+      </c>
       <c r="E739" s="9"/>
       <c r="F739" s="20"/>
-      <c r="G739" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G739" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H739" s="39"/>
       <c r="I739" s="9"/>
       <c r="J739" s="11"/>
-      <c r="K739" s="20"/>
+      <c r="K739" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B740" s="20"/>
+      <c r="A740" s="40"/>
+      <c r="B740" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C740" s="13"/>
-      <c r="D740" s="39"/>
+      <c r="D740" s="39">
+        <v>4</v>
+      </c>
       <c r="E740" s="9"/>
       <c r="F740" s="20"/>
       <c r="G740" s="13" t="str">
@@ -18151,11 +18230,13 @@
       <c r="H740" s="39"/>
       <c r="I740" s="9"/>
       <c r="J740" s="11"/>
-      <c r="K740" s="20"/>
+      <c r="K740" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -18173,7 +18254,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -18191,7 +18272,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -18209,7 +18290,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -18227,7 +18308,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -18245,7 +18326,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -18263,7 +18344,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -18281,7 +18362,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -18299,7 +18380,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -18317,7 +18398,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>45658</v>
+        <v>45323</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -18335,7 +18416,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>45689</v>
+        <v>45352</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -18353,7 +18434,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>45717</v>
+        <v>45383</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -18371,7 +18452,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>45748</v>
+        <v>45413</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -18389,7 +18470,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>45778</v>
+        <v>45444</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -18407,7 +18488,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>45809</v>
+        <v>45474</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -18425,7 +18506,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>45839</v>
+        <v>45505</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -18443,7 +18524,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>45870</v>
+        <v>45536</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -18461,7 +18542,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>45901</v>
+        <v>45566</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -18479,7 +18560,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>45931</v>
+        <v>45597</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -18497,7 +18578,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>45962</v>
+        <v>45627</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -18515,7 +18596,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>45992</v>
+        <v>45658</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -18533,7 +18614,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>46023</v>
+        <v>45689</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -18551,7 +18632,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>46054</v>
+        <v>45717</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -18569,7 +18650,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>46082</v>
+        <v>45748</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -18587,7 +18668,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>46113</v>
+        <v>45778</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -18605,7 +18686,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>46143</v>
+        <v>45809</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -18623,7 +18704,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>46174</v>
+        <v>45839</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -18641,7 +18722,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>46204</v>
+        <v>45870</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -18659,7 +18740,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>46235</v>
+        <v>45901</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -18677,7 +18758,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>46266</v>
+        <v>45931</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -18695,7 +18776,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>46296</v>
+        <v>45962</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -18713,7 +18794,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>46327</v>
+        <v>45992</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -18731,7 +18812,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>46357</v>
+        <v>46023</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -18749,7 +18830,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>46388</v>
+        <v>46054</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -18767,7 +18848,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>46419</v>
+        <v>46082</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -18785,7 +18866,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>46447</v>
+        <v>46113</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -18803,7 +18884,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>46478</v>
+        <v>46143</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -18821,7 +18902,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>46508</v>
+        <v>46174</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -18839,7 +18920,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>46539</v>
+        <v>46204</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -18857,7 +18938,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>46569</v>
+        <v>46235</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -18875,7 +18956,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>46600</v>
+        <v>46266</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -18893,21 +18974,219 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B782" s="20"/>
+      <c r="C782" s="13"/>
+      <c r="D782" s="39"/>
+      <c r="E782" s="9"/>
+      <c r="F782" s="20"/>
+      <c r="G782" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H782" s="39"/>
+      <c r="I782" s="9"/>
+      <c r="J782" s="11"/>
+      <c r="K782" s="20"/>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" s="40">
+        <v>46327</v>
+      </c>
+      <c r="B783" s="20"/>
+      <c r="C783" s="13"/>
+      <c r="D783" s="39"/>
+      <c r="E783" s="9"/>
+      <c r="F783" s="20"/>
+      <c r="G783" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H783" s="39"/>
+      <c r="I783" s="9"/>
+      <c r="J783" s="11"/>
+      <c r="K783" s="20"/>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A784" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B784" s="20"/>
+      <c r="C784" s="13"/>
+      <c r="D784" s="39"/>
+      <c r="E784" s="9"/>
+      <c r="F784" s="20"/>
+      <c r="G784" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H784" s="39"/>
+      <c r="I784" s="9"/>
+      <c r="J784" s="11"/>
+      <c r="K784" s="20"/>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A785" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B785" s="20"/>
+      <c r="C785" s="13"/>
+      <c r="D785" s="39"/>
+      <c r="E785" s="9"/>
+      <c r="F785" s="20"/>
+      <c r="G785" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H785" s="39"/>
+      <c r="I785" s="9"/>
+      <c r="J785" s="11"/>
+      <c r="K785" s="20"/>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A786" s="40">
+        <v>46419</v>
+      </c>
+      <c r="B786" s="20"/>
+      <c r="C786" s="13"/>
+      <c r="D786" s="39"/>
+      <c r="E786" s="9"/>
+      <c r="F786" s="20"/>
+      <c r="G786" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H786" s="39"/>
+      <c r="I786" s="9"/>
+      <c r="J786" s="11"/>
+      <c r="K786" s="20"/>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A787" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B787" s="20"/>
+      <c r="C787" s="13"/>
+      <c r="D787" s="39"/>
+      <c r="E787" s="9"/>
+      <c r="F787" s="20"/>
+      <c r="G787" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H787" s="39"/>
+      <c r="I787" s="9"/>
+      <c r="J787" s="11"/>
+      <c r="K787" s="20"/>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B788" s="20"/>
+      <c r="C788" s="13"/>
+      <c r="D788" s="39"/>
+      <c r="E788" s="9"/>
+      <c r="F788" s="20"/>
+      <c r="G788" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H788" s="39"/>
+      <c r="I788" s="9"/>
+      <c r="J788" s="11"/>
+      <c r="K788" s="20"/>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B789" s="20"/>
+      <c r="C789" s="13"/>
+      <c r="D789" s="39"/>
+      <c r="E789" s="9"/>
+      <c r="F789" s="20"/>
+      <c r="G789" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H789" s="39"/>
+      <c r="I789" s="9"/>
+      <c r="J789" s="11"/>
+      <c r="K789" s="20"/>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A790" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B790" s="20"/>
+      <c r="C790" s="13"/>
+      <c r="D790" s="39"/>
+      <c r="E790" s="9"/>
+      <c r="F790" s="20"/>
+      <c r="G790" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H790" s="39"/>
+      <c r="I790" s="9"/>
+      <c r="J790" s="11"/>
+      <c r="K790" s="20"/>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B791" s="20"/>
+      <c r="C791" s="13"/>
+      <c r="D791" s="39"/>
+      <c r="E791" s="9"/>
+      <c r="F791" s="20"/>
+      <c r="G791" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H791" s="39"/>
+      <c r="I791" s="9"/>
+      <c r="J791" s="11"/>
+      <c r="K791" s="20"/>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A792" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B792" s="20"/>
+      <c r="C792" s="13"/>
+      <c r="D792" s="39"/>
+      <c r="E792" s="9"/>
+      <c r="F792" s="20"/>
+      <c r="G792" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H792" s="39"/>
+      <c r="I792" s="9"/>
+      <c r="J792" s="11"/>
+      <c r="K792" s="20"/>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A793" s="40">
         <v>46631</v>
       </c>
-      <c r="B782" s="15"/>
-      <c r="C782" s="41"/>
-      <c r="D782" s="42"/>
-      <c r="E782" s="9"/>
-      <c r="F782" s="15"/>
-      <c r="G782" s="41" t="str">
+      <c r="B793" s="15"/>
+      <c r="C793" s="41"/>
+      <c r="D793" s="42"/>
+      <c r="E793" s="9"/>
+      <c r="F793" s="15"/>
+      <c r="G793" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H782" s="42"/>
-      <c r="I782" s="9"/>
-      <c r="J782" s="12"/>
-      <c r="K782" s="15"/>
+      <c r="H793" s="42"/>
+      <c r="I793" s="9"/>
+      <c r="J793" s="12"/>
+      <c r="K793" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19023,14 +19302,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.15600000000000003</v>
+        <v>0.115</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="35">
